--- a/Code/Results/Cases/Case_2_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.89864410690447</v>
+        <v>16.82891876849569</v>
       </c>
       <c r="C2">
-        <v>6.991978628549204</v>
+        <v>4.953342742468764</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.506593845754126</v>
+        <v>9.513429722921821</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.152645954739198</v>
+        <v>3.748348860011498</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.81292270750139</v>
+        <v>34.07006900356462</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.56941031102328</v>
+        <v>14.9732497098677</v>
       </c>
       <c r="L2">
-        <v>6.555721486864026</v>
+        <v>10.4909847853254</v>
       </c>
       <c r="M2">
-        <v>11.03275748776043</v>
+        <v>16.52295696420623</v>
       </c>
       <c r="N2">
-        <v>16.37410817971904</v>
+        <v>24.12936905743975</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.13280992206951</v>
+        <v>16.70224838573854</v>
       </c>
       <c r="C3">
-        <v>6.490317966230205</v>
+        <v>4.800533114539136</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.497673036485281</v>
+        <v>9.526393896011234</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.160170563046039</v>
+        <v>3.751059598505672</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.77589057201796</v>
+        <v>34.12895254745397</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.98437762832534</v>
+        <v>14.88964861149583</v>
       </c>
       <c r="L3">
-        <v>6.481226493647155</v>
+        <v>10.50128802694281</v>
       </c>
       <c r="M3">
-        <v>10.75999333216414</v>
+        <v>16.51709261662836</v>
       </c>
       <c r="N3">
-        <v>16.57734334139018</v>
+        <v>24.18789383821448</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.65060908920015</v>
+        <v>16.62812510105525</v>
       </c>
       <c r="C4">
-        <v>6.166637034772127</v>
+        <v>4.705857100406258</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.49381293015067</v>
+        <v>9.53517072756082</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.164918485847279</v>
+        <v>3.75281128651042</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.76813233616067</v>
+        <v>34.17046250735546</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.61894948901811</v>
+        <v>14.84160306294024</v>
       </c>
       <c r="L4">
-        <v>6.438300067579575</v>
+        <v>10.50906765749515</v>
       </c>
       <c r="M4">
-        <v>10.59532334724931</v>
+        <v>16.51630827292374</v>
       </c>
       <c r="N4">
-        <v>16.70619730702652</v>
+        <v>24.22578865046102</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.45133697799173</v>
+        <v>16.59886685984464</v>
       </c>
       <c r="C5">
-        <v>6.030744755136007</v>
+        <v>4.667130321994076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.492640638867256</v>
+        <v>9.53895314581117</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.166886607574786</v>
+        <v>3.753547136263625</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.76858920159703</v>
+        <v>34.18872282330026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.46866831801209</v>
+        <v>14.822866809608</v>
       </c>
       <c r="L5">
-        <v>6.421512829490561</v>
+        <v>10.51260369065644</v>
       </c>
       <c r="M5">
-        <v>10.528993640329</v>
+        <v>16.51669869714317</v>
       </c>
       <c r="N5">
-        <v>16.75972830747917</v>
+        <v>24.24172477486781</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.41808850156329</v>
+        <v>16.59406659913082</v>
       </c>
       <c r="C6">
-        <v>6.007937510604084</v>
+        <v>4.660693053778921</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.492470011491943</v>
+        <v>9.539593654321907</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.167215457269704</v>
+        <v>3.753670655860041</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.76887931752648</v>
+        <v>34.19183608966169</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.44363806812632</v>
+        <v>14.81980702081239</v>
       </c>
       <c r="L6">
-        <v>6.418767863078307</v>
+        <v>10.51321294552508</v>
       </c>
       <c r="M6">
-        <v>10.51802845542548</v>
+        <v>16.51680645974533</v>
       </c>
       <c r="N6">
-        <v>16.76867881963305</v>
+        <v>24.24440079503946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.64793250706929</v>
+        <v>16.62772664029974</v>
       </c>
       <c r="C7">
-        <v>6.164820564915042</v>
+        <v>4.705335313611728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.493795505465675</v>
+        <v>9.535220904807248</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.164944892271425</v>
+        <v>3.752821121170449</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.76812404094358</v>
+        <v>34.17070333059504</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.61692799420852</v>
+        <v>14.84134694649144</v>
       </c>
       <c r="L7">
-        <v>6.438070815233505</v>
+        <v>10.50911386433178</v>
       </c>
       <c r="M7">
-        <v>10.59442557361467</v>
+        <v>16.51631066116576</v>
       </c>
       <c r="N7">
-        <v>16.70691510677452</v>
+        <v>24.22600157076883</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.63720036243518</v>
+        <v>16.78450262442965</v>
       </c>
       <c r="C8">
-        <v>6.82222389086525</v>
+        <v>4.900870142618877</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.503178663801799</v>
+        <v>9.51773049055668</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.155214645764191</v>
+        <v>3.74926545185391</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.79695495648943</v>
+        <v>34.08925944553728</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.36908974741834</v>
+        <v>14.94375232131751</v>
       </c>
       <c r="L8">
-        <v>6.529450719739282</v>
+        <v>10.49423588747573</v>
       </c>
       <c r="M8">
-        <v>10.93816604030945</v>
+        <v>16.52035159435954</v>
       </c>
       <c r="N8">
-        <v>16.4433388037649</v>
+        <v>24.14914197026571</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.47380053254954</v>
+        <v>17.11956823436754</v>
       </c>
       <c r="C9">
-        <v>7.989640609123374</v>
+        <v>5.274784701256792</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.53468749913142</v>
+        <v>9.48989490446862</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.137090804442383</v>
+        <v>3.742981951316242</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.97913320469129</v>
+        <v>33.97212268631245</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.78768086528687</v>
+        <v>15.1698596817624</v>
       </c>
       <c r="L9">
-        <v>6.731029678972276</v>
+        <v>10.47657758474091</v>
       </c>
       <c r="M9">
-        <v>11.63165898048585</v>
+        <v>16.55052989657061</v>
       </c>
       <c r="N9">
-        <v>15.95883626420038</v>
+        <v>24.01394117575819</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.75184686754778</v>
+        <v>17.38067032939437</v>
       </c>
       <c r="C10">
-        <v>8.776834080182679</v>
+        <v>5.540293237598821</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.566226140928775</v>
+        <v>9.473360370894307</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.124273469612209</v>
+        <v>3.738780830745832</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.19911467648894</v>
+        <v>33.9121247447244</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.78820579951672</v>
+        <v>15.3502740941061</v>
       </c>
       <c r="L10">
-        <v>6.892842259484253</v>
+        <v>10.47060337090745</v>
       </c>
       <c r="M10">
-        <v>12.14950967640105</v>
+        <v>16.58612707575501</v>
       </c>
       <c r="N10">
-        <v>15.62288931611823</v>
+        <v>23.9240227648727</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.31675558365384</v>
+        <v>17.50226338162067</v>
       </c>
       <c r="C11">
-        <v>9.120526719634817</v>
+        <v>5.658459123869014</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.582487218519857</v>
+        <v>9.466683648067731</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.118530033713161</v>
+        <v>3.736958811082551</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.32002112107666</v>
+        <v>33.89050907186437</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.23333552950932</v>
+        <v>15.43519223238012</v>
       </c>
       <c r="L11">
-        <v>6.969447969982028</v>
+        <v>10.46939941205967</v>
       </c>
       <c r="M11">
-        <v>12.38628831833272</v>
+        <v>16.60519938121108</v>
       </c>
       <c r="N11">
-        <v>15.47452462733285</v>
+        <v>23.88515062402723</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52825743541529</v>
+        <v>17.54867513134705</v>
       </c>
       <c r="C12">
-        <v>9.248682152968989</v>
+        <v>5.702784124431385</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.588928095666136</v>
+        <v>9.464276417198123</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.116365811769759</v>
+        <v>3.736281593643355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.36898246737381</v>
+        <v>33.88314146919159</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.41358550089661</v>
+        <v>15.46773464385863</v>
       </c>
       <c r="L12">
-        <v>6.9988889904713</v>
+        <v>10.4691605306824</v>
       </c>
       <c r="M12">
-        <v>12.47608208069495</v>
+        <v>16.61283182591211</v>
       </c>
       <c r="N12">
-        <v>15.41899969849909</v>
+        <v>23.8707223063772</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.48281465907213</v>
+        <v>17.53866381227504</v>
       </c>
       <c r="C13">
-        <v>9.221168939924674</v>
+        <v>5.693257384164841</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.587528211734734</v>
+        <v>9.464789477935485</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.116831471392807</v>
+        <v>3.73642687893701</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.35829354238701</v>
+        <v>33.88469182399812</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.36902070068544</v>
+        <v>15.46070927967217</v>
       </c>
       <c r="L13">
-        <v>6.992529090887286</v>
+        <v>10.46920233654244</v>
       </c>
       <c r="M13">
-        <v>12.45673815071969</v>
+        <v>16.6111698640275</v>
       </c>
       <c r="N13">
-        <v>15.4309284301626</v>
+        <v>23.87381673634834</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.33420457185829</v>
+        <v>17.50607456577564</v>
       </c>
       <c r="C14">
-        <v>9.131109628069478</v>
+        <v>5.662114468643705</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.583011391033476</v>
+        <v>9.466483179032368</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.118351778771065</v>
+        <v>3.736902841026197</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.32398447947679</v>
+        <v>33.88988653823495</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.24711065647205</v>
+        <v>15.43786192264147</v>
       </c>
       <c r="L14">
-        <v>6.971861429641138</v>
+        <v>10.46937541345123</v>
       </c>
       <c r="M14">
-        <v>12.39367329515626</v>
+        <v>16.60581910954117</v>
       </c>
       <c r="N14">
-        <v>15.46994326942098</v>
+        <v>23.88395775401908</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.24286095890696</v>
+        <v>17.48615938532749</v>
       </c>
       <c r="C15">
-        <v>9.075688506553609</v>
+        <v>5.642982316430691</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.580281828329723</v>
+        <v>9.467536378608116</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.119284345669954</v>
+        <v>3.737196038865616</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.30338834679436</v>
+        <v>33.89317498642014</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.1750161600929</v>
+        <v>15.42391678137533</v>
       </c>
       <c r="L15">
-        <v>6.95925821713513</v>
+        <v>10.4695096716506</v>
       </c>
       <c r="M15">
-        <v>12.35506017689169</v>
+        <v>16.60259491598154</v>
       </c>
       <c r="N15">
-        <v>15.49392718244223</v>
+        <v>23.89020739576907</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.71459244869335</v>
+        <v>17.37277738339142</v>
       </c>
       <c r="C16">
-        <v>8.754089608083058</v>
+        <v>5.532514172291806</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.5652026215467</v>
+        <v>9.473813678365969</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.124650417436651</v>
+        <v>3.738901690820448</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.19164772716593</v>
+        <v>33.91365174858169</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.75890923641902</v>
+        <v>15.34477977611982</v>
       </c>
       <c r="L16">
-        <v>6.887896272725314</v>
+        <v>10.47071245957793</v>
       </c>
       <c r="M16">
-        <v>12.13405606021056</v>
+        <v>16.58493826954458</v>
       </c>
       <c r="N16">
-        <v>15.63267632129943</v>
+        <v>23.92660399968478</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.38625307085494</v>
+        <v>17.30391576002643</v>
       </c>
       <c r="C17">
-        <v>8.55316306652591</v>
+        <v>5.464041639566227</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.556447715447378</v>
+        <v>9.477880720171864</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.127963404340041</v>
+        <v>3.739970821950586</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.12856169185094</v>
+        <v>33.92766878980083</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.50103332020382</v>
+        <v>15.29694433780358</v>
       </c>
       <c r="L17">
-        <v>6.844886044586178</v>
+        <v>10.47183760298377</v>
       </c>
       <c r="M17">
-        <v>11.9987529920445</v>
+        <v>16.57484125524374</v>
       </c>
       <c r="N17">
-        <v>15.71894675913597</v>
+        <v>23.94945226263015</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.195850569455</v>
+        <v>17.26457577758344</v>
       </c>
       <c r="C18">
-        <v>8.436234491946024</v>
+        <v>5.424414320291131</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.551591776098716</v>
+        <v>9.480299527094349</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.129877277692</v>
+        <v>3.740594147694444</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.09422631612034</v>
+        <v>33.93626536508273</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.35176868805287</v>
+        <v>15.26970006680871</v>
       </c>
       <c r="L18">
-        <v>6.820429611895679</v>
+        <v>10.47262727931237</v>
       </c>
       <c r="M18">
-        <v>11.92104576606068</v>
+        <v>16.56930495194987</v>
       </c>
       <c r="N18">
-        <v>15.76898573123011</v>
+        <v>23.96278528795704</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.1311191782316</v>
+        <v>17.251303007765</v>
       </c>
       <c r="C19">
-        <v>8.396408464997355</v>
+        <v>5.410956802081759</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.549978260542461</v>
+        <v>9.481132168768196</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.130526766968232</v>
+        <v>3.740806638157605</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.08293046112386</v>
+        <v>33.93926774775585</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.30107049896369</v>
+        <v>15.26052260320193</v>
       </c>
       <c r="L19">
-        <v>6.812197481181324</v>
+        <v>10.47291914706909</v>
       </c>
       <c r="M19">
-        <v>11.89475671449799</v>
+        <v>16.56747714989876</v>
       </c>
       <c r="N19">
-        <v>15.78599952045779</v>
+        <v>23.96733249460025</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.42136624698084</v>
+        <v>17.31121879511204</v>
       </c>
       <c r="C20">
-        <v>8.574692346702603</v>
+        <v>5.471356229150119</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.557361041187844</v>
+        <v>9.477439546174358</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.127609881907659</v>
+        <v>3.739856143307106</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.13507419650968</v>
+        <v>33.92612133883253</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.52858250033443</v>
+        <v>15.30200878786372</v>
       </c>
       <c r="L20">
-        <v>6.849435374207672</v>
+        <v>10.471703083306</v>
       </c>
       <c r="M20">
-        <v>12.01314461500994</v>
+        <v>16.57588805468301</v>
       </c>
       <c r="N20">
-        <v>15.70971970702329</v>
+        <v>23.94700023000744</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.37792078049781</v>
+        <v>17.51563715889503</v>
       </c>
       <c r="C21">
-        <v>9.157615681539076</v>
+        <v>5.671273688668465</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.584330339959298</v>
+        <v>9.465982414576372</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.117904953025956</v>
+        <v>3.736762694162671</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.33397419994425</v>
+        <v>33.88833852069405</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.28162910946562</v>
+        <v>15.44456246739</v>
       </c>
       <c r="L21">
-        <v>6.977920280513026</v>
+        <v>10.46931869187955</v>
       </c>
       <c r="M21">
-        <v>12.41219371609736</v>
+        <v>16.60737965585225</v>
       </c>
       <c r="N21">
-        <v>15.45846566614281</v>
+        <v>23.88097117809977</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.98899547559149</v>
+        <v>17.65135823888489</v>
       </c>
       <c r="C22">
-        <v>9.52701092248857</v>
+        <v>5.799454411921276</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.603610905474196</v>
+        <v>9.459200186363558</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.111623563620671</v>
+        <v>3.734815183806364</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.48257131273825</v>
+        <v>33.86841240601918</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.86383228416105</v>
+        <v>15.53996661519234</v>
       </c>
       <c r="L22">
-        <v>7.064412646398933</v>
+        <v>10.4690250302503</v>
       </c>
       <c r="M22">
-        <v>12.67374473561561</v>
+        <v>16.63035005271267</v>
       </c>
       <c r="N22">
-        <v>15.29810047255393</v>
+        <v>23.83951751307373</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.66415072742443</v>
+        <v>17.57873982887333</v>
       </c>
       <c r="C23">
-        <v>9.330889752728233</v>
+        <v>5.731282514612515</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.593166342846092</v>
+        <v>9.462755553638051</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.11497110239382</v>
+        <v>3.73584783679148</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.40149868341304</v>
+        <v>33.87861076662543</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.54668118203409</v>
+        <v>15.48885089971681</v>
       </c>
       <c r="L23">
-        <v>7.018018749054818</v>
+        <v>10.46906627661261</v>
       </c>
       <c r="M23">
-        <v>12.53409316780277</v>
+        <v>16.61787309069246</v>
       </c>
       <c r="N23">
-        <v>15.38333203152996</v>
+        <v>23.86148671421395</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.4054966713802</v>
+        <v>17.30791631292837</v>
       </c>
       <c r="C24">
-        <v>8.564963366848893</v>
+        <v>5.468050114343635</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.556947574735998</v>
+        <v>9.477638749830938</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.127769680627384</v>
+        <v>3.739907962515586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.13212388393172</v>
+        <v>33.92681926560886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.5161306526986</v>
+        <v>15.2997183477693</v>
       </c>
       <c r="L24">
-        <v>6.847377779127053</v>
+        <v>10.47176345474405</v>
       </c>
       <c r="M24">
-        <v>12.00663790877475</v>
+        <v>16.57541395967325</v>
       </c>
       <c r="N24">
-        <v>15.71388988500182</v>
+        <v>23.94810817941435</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98901474121784</v>
+        <v>17.02615898538344</v>
       </c>
       <c r="C25">
-        <v>7.686489083543443</v>
+        <v>5.17502047041009</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.524719984598496</v>
+        <v>9.496735692408999</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.141899728003404</v>
+        <v>3.74460851963587</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.91542669187257</v>
+        <v>33.99924153421123</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.41081837546919</v>
+        <v>15.10609594592057</v>
       </c>
       <c r="L25">
-        <v>6.674092967221531</v>
+        <v>10.48012360255818</v>
       </c>
       <c r="M25">
-        <v>11.44235283429618</v>
+        <v>16.53999667662035</v>
       </c>
       <c r="N25">
-        <v>16.08642177907277</v>
+        <v>24.04886003815091</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.82891876849569</v>
+        <v>14.89864410690443</v>
       </c>
       <c r="C2">
-        <v>4.953342742468764</v>
+        <v>6.991978628549164</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.513429722921821</v>
+        <v>5.50659384575419</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.748348860011498</v>
+        <v>2.152645954739199</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.07006900356462</v>
+        <v>23.81292270750128</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.9732497098677</v>
+        <v>12.56941031102326</v>
       </c>
       <c r="L2">
-        <v>10.4909847853254</v>
+        <v>6.555721486864037</v>
       </c>
       <c r="M2">
-        <v>16.52295696420623</v>
+        <v>11.03275748776042</v>
       </c>
       <c r="N2">
-        <v>24.12936905743975</v>
+        <v>16.37410817971893</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70224838573854</v>
+        <v>14.13280992206951</v>
       </c>
       <c r="C3">
-        <v>4.800533114539136</v>
+        <v>6.490317966230297</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.526393896011234</v>
+        <v>5.4976730364854</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.751059598505672</v>
+        <v>2.160170563046306</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.12895254745397</v>
+        <v>23.77589057201779</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.88964861149583</v>
+        <v>11.98437762832527</v>
       </c>
       <c r="L3">
-        <v>10.50128802694281</v>
+        <v>6.481226493647179</v>
       </c>
       <c r="M3">
-        <v>16.51709261662836</v>
+        <v>10.75999333216411</v>
       </c>
       <c r="N3">
-        <v>24.18789383821448</v>
+        <v>16.57734334139004</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.62812510105525</v>
+        <v>13.65060908920017</v>
       </c>
       <c r="C4">
-        <v>4.705857100406258</v>
+        <v>6.166637034772055</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.53517072756082</v>
+        <v>5.493812930150547</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.75281128651042</v>
+        <v>2.164918485847278</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.17046250735546</v>
+        <v>23.76813233616071</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.84160306294024</v>
+        <v>11.61894948901816</v>
       </c>
       <c r="L4">
-        <v>10.50906765749515</v>
+        <v>6.43830006757955</v>
       </c>
       <c r="M4">
-        <v>16.51630827292374</v>
+        <v>10.59532334724933</v>
       </c>
       <c r="N4">
-        <v>24.22578865046102</v>
+        <v>16.70619730702652</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.59886685984464</v>
+        <v>13.45133697799183</v>
       </c>
       <c r="C5">
-        <v>4.667130321994076</v>
+        <v>6.030744755136038</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.53895314581117</v>
+        <v>5.492640638867259</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.753547136263625</v>
+        <v>2.166886607574785</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.18872282330026</v>
+        <v>23.76858920159733</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.822866809608</v>
+        <v>11.4686683180122</v>
       </c>
       <c r="L5">
-        <v>10.51260369065644</v>
+        <v>6.421512829490593</v>
       </c>
       <c r="M5">
-        <v>16.51669869714317</v>
+        <v>10.52899364032907</v>
       </c>
       <c r="N5">
-        <v>24.24172477486781</v>
+        <v>16.75972830747934</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.59406659913082</v>
+        <v>13.4180885015633</v>
       </c>
       <c r="C6">
-        <v>4.660693053778921</v>
+        <v>6.007937510604084</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.539593654321907</v>
+        <v>5.492470011491887</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.753670655860041</v>
+        <v>2.167215457269838</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.19183608966169</v>
+        <v>23.7688793175265</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.81980702081239</v>
+        <v>11.44363806812634</v>
       </c>
       <c r="L6">
-        <v>10.51321294552508</v>
+        <v>6.418767863078253</v>
       </c>
       <c r="M6">
-        <v>16.51680645974533</v>
+        <v>10.51802845542548</v>
       </c>
       <c r="N6">
-        <v>24.24440079503946</v>
+        <v>16.76867881963305</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.62772664029974</v>
+        <v>13.64793250706926</v>
       </c>
       <c r="C7">
-        <v>4.705335313611728</v>
+        <v>6.164820564915057</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.535220904807248</v>
+        <v>5.493795505465735</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.752821121170449</v>
+        <v>2.164944892271157</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.17070333059504</v>
+        <v>23.76812404094335</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.84134694649144</v>
+        <v>11.6169279942085</v>
       </c>
       <c r="L7">
-        <v>10.50911386433178</v>
+        <v>6.438070815233569</v>
       </c>
       <c r="M7">
-        <v>16.51631066116576</v>
+        <v>10.59442557361463</v>
       </c>
       <c r="N7">
-        <v>24.22600157076883</v>
+        <v>16.7069151067744</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.78450262442965</v>
+        <v>14.63720036243526</v>
       </c>
       <c r="C8">
-        <v>4.900870142618877</v>
+        <v>6.822223890865242</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.51773049055668</v>
+        <v>5.503178663801738</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.74926545185391</v>
+        <v>2.155214645764459</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.08925944553728</v>
+        <v>23.79695495648973</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.94375232131751</v>
+        <v>12.36908974741839</v>
       </c>
       <c r="L8">
-        <v>10.49423588747573</v>
+        <v>6.529450719739311</v>
       </c>
       <c r="M8">
-        <v>16.52035159435954</v>
+        <v>10.9381660403095</v>
       </c>
       <c r="N8">
-        <v>24.14914197026571</v>
+        <v>16.44333880376508</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11956823436754</v>
+        <v>16.47380053254961</v>
       </c>
       <c r="C9">
-        <v>5.274784701256792</v>
+        <v>7.989640609123301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.48989490446862</v>
+        <v>5.534687499131425</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.742981951316242</v>
+        <v>2.137090804442114</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.97212268631245</v>
+        <v>23.97913320469161</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.1698596817624</v>
+        <v>13.78768086528692</v>
       </c>
       <c r="L9">
-        <v>10.47657758474091</v>
+        <v>6.73102967897234</v>
       </c>
       <c r="M9">
-        <v>16.55052989657061</v>
+        <v>11.63165898048593</v>
       </c>
       <c r="N9">
-        <v>24.01394117575819</v>
+        <v>15.9588362642005</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.38067032939437</v>
+        <v>17.7518468675478</v>
       </c>
       <c r="C10">
-        <v>5.540293237598821</v>
+        <v>8.776834080182686</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.473360370894307</v>
+        <v>5.566226140928827</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.738780830745832</v>
+        <v>2.124273469612342</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.9121247447244</v>
+        <v>24.19911467648907</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.3502740941061</v>
+        <v>14.78820579951673</v>
       </c>
       <c r="L10">
-        <v>10.47060337090745</v>
+        <v>6.892842259484215</v>
       </c>
       <c r="M10">
-        <v>16.58612707575501</v>
+        <v>12.14950967640105</v>
       </c>
       <c r="N10">
-        <v>23.9240227648727</v>
+        <v>15.62288931611833</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.50226338162067</v>
+        <v>18.31675558365385</v>
       </c>
       <c r="C11">
-        <v>5.658459123869014</v>
+        <v>9.120526719634846</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.466683648067731</v>
+        <v>5.582487218519799</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.736958811082551</v>
+        <v>2.118530033713025</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.89050907186437</v>
+        <v>24.32002112107678</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.43519223238012</v>
+        <v>15.23333552950931</v>
       </c>
       <c r="L11">
-        <v>10.46939941205967</v>
+        <v>6.969447969981923</v>
       </c>
       <c r="M11">
-        <v>16.60519938121108</v>
+        <v>12.38628831833269</v>
       </c>
       <c r="N11">
-        <v>23.88515062402723</v>
+        <v>15.47452462733295</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.54867513134705</v>
+        <v>18.52825743541529</v>
       </c>
       <c r="C12">
-        <v>5.702784124431385</v>
+        <v>9.248682152969041</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.464276417198123</v>
+        <v>5.58892809566635</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.736281593643355</v>
+        <v>2.116365811769624</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.88314146919159</v>
+        <v>24.36898246737383</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.46773464385863</v>
+        <v>15.41358550089657</v>
       </c>
       <c r="L12">
-        <v>10.4691605306824</v>
+        <v>6.998888990471376</v>
       </c>
       <c r="M12">
-        <v>16.61283182591211</v>
+        <v>12.47608208069501</v>
       </c>
       <c r="N12">
-        <v>23.8707223063772</v>
+        <v>15.41899969849909</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.53866381227504</v>
+        <v>18.48281465907217</v>
       </c>
       <c r="C13">
-        <v>5.693257384164841</v>
+        <v>9.221168939924725</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.464789477935485</v>
+        <v>5.587528211734786</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.73642687893701</v>
+        <v>2.116831471392677</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.88469182399812</v>
+        <v>24.35829354238701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.46070927967217</v>
+        <v>15.36902070068545</v>
       </c>
       <c r="L13">
-        <v>10.46920233654244</v>
+        <v>6.992529090887317</v>
       </c>
       <c r="M13">
-        <v>16.6111698640275</v>
+        <v>12.45673815071971</v>
       </c>
       <c r="N13">
-        <v>23.87381673634834</v>
+        <v>15.43092843016257</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.50607456577564</v>
+        <v>18.33420457185829</v>
       </c>
       <c r="C14">
-        <v>5.662114468643705</v>
+        <v>9.131109628069362</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.466483179032368</v>
+        <v>5.583011391033521</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.736902841026197</v>
+        <v>2.118351778771063</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.88988653823495</v>
+        <v>24.32398447947692</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.43786192264147</v>
+        <v>15.24711065647205</v>
       </c>
       <c r="L14">
-        <v>10.46937541345123</v>
+        <v>6.971861429641148</v>
       </c>
       <c r="M14">
-        <v>16.60581910954117</v>
+        <v>12.39367329515629</v>
       </c>
       <c r="N14">
-        <v>23.88395775401908</v>
+        <v>15.4699432694211</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48615938532749</v>
+        <v>18.24286095890697</v>
       </c>
       <c r="C15">
-        <v>5.642982316430691</v>
+        <v>9.075688506553535</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.467536378608116</v>
+        <v>5.580281828329726</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.737196038865616</v>
+        <v>2.119284345669953</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.89317498642014</v>
+        <v>24.30338834679434</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.42391678137533</v>
+        <v>15.17501616009293</v>
       </c>
       <c r="L15">
-        <v>10.4695096716506</v>
+        <v>6.959258217135178</v>
       </c>
       <c r="M15">
-        <v>16.60259491598154</v>
+        <v>12.35506017689171</v>
       </c>
       <c r="N15">
-        <v>23.89020739576907</v>
+        <v>15.49392718244215</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.37277738339142</v>
+        <v>17.71459244869338</v>
       </c>
       <c r="C16">
-        <v>5.532514172291806</v>
+        <v>8.754089608083056</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.473813678365969</v>
+        <v>5.565202621546703</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.738901690820448</v>
+        <v>2.124650417436518</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.91365174858169</v>
+        <v>24.19164772716595</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.34477977611982</v>
+        <v>14.75890923641904</v>
       </c>
       <c r="L16">
-        <v>10.47071245957793</v>
+        <v>6.887896272725312</v>
       </c>
       <c r="M16">
-        <v>16.58493826954458</v>
+        <v>12.13405606021058</v>
       </c>
       <c r="N16">
-        <v>23.92660399968478</v>
+        <v>15.63267632129945</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.30391576002643</v>
+        <v>17.38625307085498</v>
       </c>
       <c r="C17">
-        <v>5.464041639566227</v>
+        <v>8.553163066525943</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.477880720171864</v>
+        <v>5.556447715447388</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.739970821950586</v>
+        <v>2.127963404340176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.92766878980083</v>
+        <v>24.12856169185095</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.29694433780358</v>
+        <v>14.50103332020385</v>
       </c>
       <c r="L17">
-        <v>10.47183760298377</v>
+        <v>6.844886044586095</v>
       </c>
       <c r="M17">
-        <v>16.57484125524374</v>
+        <v>11.99875299204454</v>
       </c>
       <c r="N17">
-        <v>23.94945226263015</v>
+        <v>15.71894675913583</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.26457577758344</v>
+        <v>17.195850569455</v>
       </c>
       <c r="C18">
-        <v>5.424414320291131</v>
+        <v>8.43623449194587</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.480299527094349</v>
+        <v>5.551591776098602</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.740594147694444</v>
+        <v>2.129877277692264</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.93626536508273</v>
+        <v>24.09422631612044</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.26970006680871</v>
+        <v>14.35176868805289</v>
       </c>
       <c r="L18">
-        <v>10.47262727931237</v>
+        <v>6.820429611895669</v>
       </c>
       <c r="M18">
-        <v>16.56930495194987</v>
+        <v>11.92104576606067</v>
       </c>
       <c r="N18">
-        <v>23.96278528795704</v>
+        <v>15.7689857312302</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.251303007765</v>
+        <v>17.13111917823161</v>
       </c>
       <c r="C19">
-        <v>5.410956802081759</v>
+        <v>8.396408464997435</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.481132168768196</v>
+        <v>5.549978260542466</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.740806638157605</v>
+        <v>2.130526766967833</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.93926774775585</v>
+        <v>24.08293046112379</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.26052260320193</v>
+        <v>14.30107049896369</v>
       </c>
       <c r="L19">
-        <v>10.47291914706909</v>
+        <v>6.812197481181287</v>
       </c>
       <c r="M19">
-        <v>16.56747714989876</v>
+        <v>11.89475671449799</v>
       </c>
       <c r="N19">
-        <v>23.96733249460025</v>
+        <v>15.78599952045762</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.31121879511204</v>
+        <v>17.42136624698088</v>
       </c>
       <c r="C20">
-        <v>5.471356229150119</v>
+        <v>8.574692346702644</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.477439546174358</v>
+        <v>5.5573610411879</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.739856143307106</v>
+        <v>2.127609881907792</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.92612133883253</v>
+        <v>24.13507419650962</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.30200878786372</v>
+        <v>14.52858250033445</v>
       </c>
       <c r="L20">
-        <v>10.471703083306</v>
+        <v>6.849435374207729</v>
       </c>
       <c r="M20">
-        <v>16.57588805468301</v>
+        <v>12.01314461500999</v>
       </c>
       <c r="N20">
-        <v>23.94700023000744</v>
+        <v>15.70971970702316</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.51563715889503</v>
+        <v>18.37792078049783</v>
       </c>
       <c r="C21">
-        <v>5.671273688668465</v>
+        <v>9.157615681539131</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.465982414576372</v>
+        <v>5.584330339959295</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.736762694162671</v>
+        <v>2.117904953026092</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.88833852069405</v>
+        <v>24.33397419994428</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.44456246739</v>
+        <v>15.28162910946563</v>
       </c>
       <c r="L21">
-        <v>10.46931869187955</v>
+        <v>6.977920280513035</v>
       </c>
       <c r="M21">
-        <v>16.60737965585225</v>
+        <v>12.41219371609735</v>
       </c>
       <c r="N21">
-        <v>23.88097117809977</v>
+        <v>15.45846566614281</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.65135823888489</v>
+        <v>18.98899547559149</v>
       </c>
       <c r="C22">
-        <v>5.799454411921276</v>
+        <v>9.52701092248858</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.459200186363558</v>
+        <v>5.603610905474145</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.734815183806364</v>
+        <v>2.11162356362054</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.86841240601918</v>
+        <v>24.48257131273837</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.53996661519234</v>
+        <v>15.863832284161</v>
       </c>
       <c r="L22">
-        <v>10.4690250302503</v>
+        <v>7.064412646398911</v>
       </c>
       <c r="M22">
-        <v>16.63035005271267</v>
+        <v>12.67374473561562</v>
       </c>
       <c r="N22">
-        <v>23.83951751307373</v>
+        <v>15.29810047255403</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57873982887333</v>
+        <v>18.66415072742446</v>
       </c>
       <c r="C23">
-        <v>5.731282514612515</v>
+        <v>9.330889752728325</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.462755553638051</v>
+        <v>5.593166342846095</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.73584783679148</v>
+        <v>2.114971102393822</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.87861076662543</v>
+        <v>24.40149868341301</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.48885089971681</v>
+        <v>15.54668118203414</v>
       </c>
       <c r="L23">
-        <v>10.46906627661261</v>
+        <v>7.018018749054774</v>
       </c>
       <c r="M23">
-        <v>16.61787309069246</v>
+        <v>12.53409316780273</v>
       </c>
       <c r="N23">
-        <v>23.86148671421395</v>
+        <v>15.38333203152991</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.30791631292837</v>
+        <v>17.4054966713802</v>
       </c>
       <c r="C24">
-        <v>5.468050114343635</v>
+        <v>8.56496336684897</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.477638749830938</v>
+        <v>5.556947574736057</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.739907962515586</v>
+        <v>2.127769680627386</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.92681926560886</v>
+        <v>24.13212388393137</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.2997183477693</v>
+        <v>14.51613065269857</v>
       </c>
       <c r="L24">
-        <v>10.47176345474405</v>
+        <v>6.847377779127063</v>
       </c>
       <c r="M24">
-        <v>16.57541395967325</v>
+        <v>12.0066379087747</v>
       </c>
       <c r="N24">
-        <v>23.94810817941435</v>
+        <v>15.71388988500155</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.02615898538344</v>
+        <v>15.98901474121787</v>
       </c>
       <c r="C25">
-        <v>5.17502047041009</v>
+        <v>7.686489083543457</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.496735692408999</v>
+        <v>5.524719984598504</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.74460851963587</v>
+        <v>2.141899728003406</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.99924153421123</v>
+        <v>23.91542669187271</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.10609594592057</v>
+        <v>13.41081837546922</v>
       </c>
       <c r="L25">
-        <v>10.48012360255818</v>
+        <v>6.674092967221561</v>
       </c>
       <c r="M25">
-        <v>16.53999667662035</v>
+        <v>11.44235283429622</v>
       </c>
       <c r="N25">
-        <v>24.04886003815091</v>
+        <v>16.08642177907286</v>
       </c>
       <c r="O25">
         <v>0</v>
